--- a/publipostage/0275ye937/liste_essais_cliniques_identifies_0275ye937.xlsx
+++ b/publipostage/0275ye937/liste_essais_cliniques_identifies_0275ye937.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I144"/>
+  <dimension ref="A1:J144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -488,28 +493,33 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>NCT00153231</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Clinical Evaluation of Morbidity and Efficacy of Posterior IVS (Infracoccygeal Sacropexy), in Comparison to the Standard Sacrospinous Suspension in the Surgical Treatment of Vaginal Vault Prolapse by the Vaginal Route.</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -521,28 +531,33 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NCT01189188</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NCT00370877</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Ultrasound Guidance for Radial Arterial Blood Sampling</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Recombinant Human Activated Factor VII as Salvage Therapy in Women With Severe Postpartum Hemorrhage</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -554,28 +569,33 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NCT00370877</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NCT01189188</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Recombinant Human Activated Factor VII as Salvage Therapy in Women With Severe Postpartum Hemorrhage</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Ultrasound Guidance for Radial Arterial Blood Sampling</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -587,28 +607,33 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>NCT00264589</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Effects of an Individualized Training Program on Cardiovascular Function at Rest and During Exercise in Obese and in Type 2 Diabetic Subjects</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -620,32 +645,33 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NCT01647802</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NCT01644760</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Cross-over Study of Three Modular Devices for Aid in Patient Standing and Transfer</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>VTT</t>
-        </is>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
+          <t>Respiratory Variations in the Diameter of the Inferior Vena Cava With Spontaneous Ventilation: A Physiological Study on Healthy Volunteers</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -657,32 +683,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>NCT01167803</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Coming Out of Anesthesia After Bariatric Surgery : Desflurane Versus Xenon</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>XENON</t>
         </is>
       </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -694,32 +725,33 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NCT03614598</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NCT01402765</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Impact on Postoperative Pain of Three Single-use Adult Supraglottic Airway Devices in Short General Anesthetic Under Controlled Ventilation</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>DISPOSITIF LAR</t>
-        </is>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
+          <t>Interface Pressure Measures for Matresses: a Randomized, Cross-over, Non-inferiority Study Comparing the Nimbus 3 Versus Summit Matresses</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -731,32 +763,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>NCT03867071</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Early Administration of Recombinant Erythropoietin (RHEPO) in Transfusion Savings in Trauma Patients</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>EPREX</t>
         </is>
       </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -768,28 +805,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NCT01402765</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NCT03614598</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Interface Pressure Measures for Matresses: a Randomized, Cross-over, Non-inferiority Study Comparing the Nimbus 3 Versus Summit Matresses</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="b">
-        <v>0</v>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Impact on Postoperative Pain of Three Single-use Adult Supraglottic Airway Devices in Short General Anesthetic Under Controlled Ventilation</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>DISPOSITIF LAR</t>
+        </is>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -801,28 +847,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NCT01644760</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NCT01647802</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Respiratory Variations in the Diameter of the Inferior Vena Cava With Spontaneous Ventilation: A Physiological Study on Healthy Volunteers</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="b">
-        <v>0</v>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Cross-over Study of Three Modular Devices for Aid in Patient Standing and Transfer</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>VTT</t>
+        </is>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -834,32 +889,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>NCT01647815</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Ultrasound Comparison of the Surface of the Subclavian Vein (Arm in Abduction (90°) and External Rotation (90 °)) and the Surface of the Axillary Vein (Arms Along the Body) Versus the Surface of the Subclavian Vein (Arm Along the Body)</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>AnatoAbord</t>
         </is>
       </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
         <v>1</v>
       </c>
     </row>
@@ -871,28 +931,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NCT00153257</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NCT01134588</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Comparison of the Prosthesis Ugytex by the Trans-obturator Approach and Anterior Colporrhaphy for the Surgical Treatment of Anterior Vaginal Wall Prolapse</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="b">
-        <v>0</v>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Assessment of Quality of Life in Disorders of the Pelvic Floor</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>U-GYN-QOL</t>
+        </is>
       </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -904,70 +973,76 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>NCT01087229</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Comparative Study of the Effectiveness of an Equimolar Oxygen-nitrous Oxide Mixture During Physical Therapy for Adhesive Shoulder Capsulitis</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>MEOPA</t>
         </is>
       </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NCT01134588</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NCT01543360</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Assessment of Quality of Life in Disorders of the Pelvic Floor</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>U-GYN-QOL</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
+          <t>Comparison of Axillary Versus Subclavian Vein Strategies for Central Venous Catheterization Under Continuous Ultrasound Guidance: a Prospective, Randomized, Non-inferiority Study</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -978,32 +1053,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>NCT01795443</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Lumbar Proprioception in Lower Back Pain Patients Versus Healthy Subjects : a Comparative Study on the Effects of Low- and High-frequency Muscle Vibrations</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Vibrioception</t>
         </is>
       </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1015,62 +1095,76 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NCT01545089</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NCT01390454</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Use of a Fabric Mattress Cover for Patient Comfort</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="b">
-        <v>0</v>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Study of the Relationship Between Functional Ultrasound Data and the Impact of Lateral Epicondylar Pain</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>EPICORE</t>
+        </is>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NCT01543360</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NCT00153257</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Comparison of Axillary Versus Subclavian Vein Strategies for Central Venous Catheterization Under Continuous Ultrasound Guidance: a Prospective, Randomized, Non-inferiority Study</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Comparison of the Prosthesis Ugytex by the Trans-obturator Approach and Anterior Colporrhaphy for the Surgical Treatment of Anterior Vaginal Wall Prolapse</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1081,32 +1175,33 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NCT01390454</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NCT01545089</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Study of the Relationship Between Functional Ultrasound Data and the Impact of Lateral Epicondylar Pain</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>EPICORE</t>
-        </is>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
+          <t>Use of a Fabric Mattress Cover for Patient Comfort</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1118,32 +1213,37 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NCT01746433</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NCT01800084</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Evaluation of the Mobility of Elderly Patients (&gt; 65 Years) When Using the "l'Ergonome" Mobility Device: a Randomized, Monocentric Study</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>L'ERGONOME</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
+          <t>Impact of Reconstruction Method (Adaptive Statistical Iterative Reconstruction, Filtered Back Projection) Used in Computed Tomography on Bone Single-Photon- Emission-Computed-Tomography/Computed-Tomography Image Quality</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>AsirTest</t>
+        </is>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1155,29 +1255,34 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NCT01259648</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NCT01323049</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Randomized Study Evaluating the Efficacy and Safety of Remifentanil in a Rapid Sequence Induction for Fragile Subjects</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Comparison of Spontaneous Ventilation Time in Air Without Desaturation After Positive Pressure Extubation Versus Aspiration Extubation When Awakening From General Anesthesia</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="b">
         <v>0</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1188,32 +1293,33 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NCT01114347</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>NCT01292044</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Prevention of Nosocomial Escherichia Coli Infections After Placement of an Indwelling Catheter During Pelvic Surgery: a Randomized, Prospective, Double Blind Study for the Evaluation of Cranberry (Vaccinium Macrocarpon) Gel Capsules</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>NosoPink</t>
-        </is>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
+          <t>The Role of Elastography in the Diagnosis of Thyroid Nodules</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="b">
         <v>0</v>
       </c>
       <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1225,32 +1331,33 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NCT01743105</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NCT01259648</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Reproductibility of Time-motion-mode Ultrasound Diaphragm Measures in Patients With Acute Respiratory Distress in the Emergency Room</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>EDDRA-Repro</t>
-        </is>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
+          <t>Randomized Study Evaluating the Efficacy and Safety of Remifentanil in a Rapid Sequence Induction for Fragile Subjects</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="b">
         <v>0</v>
       </c>
       <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1262,32 +1369,37 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NCT01785368</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NCT02888158</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Implementing Referral Guidelines for Imaging Exams Requested Via the Emergency Department: Impact on Exam Relevance and Associated Delays</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>RIU</t>
-        </is>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
+          <t>Laparoscopic Training With and Without Robotic Assistance for Surgical Internes: a Randomized Study</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>LAPRA</t>
+        </is>
       </c>
       <c r="H24" t="b">
         <v>0</v>
       </c>
       <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1299,28 +1411,37 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NCT01292044</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NCT01746433</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>The Role of Elastography in the Diagnosis of Thyroid Nodules</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="b">
-        <v>0</v>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Evaluation of the Mobility of Elderly Patients (&gt; 65 Years) When Using the "l'Ergonome" Mobility Device: a Randomized, Monocentric Study</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>L'ERGONOME</t>
+        </is>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
       <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1332,32 +1453,37 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NCT02888158</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NCT01743105</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Laparoscopic Training With and Without Robotic Assistance for Surgical Internes: a Randomized Study</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>LAPRA</t>
-        </is>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
+          <t>Reproductibility of Time-motion-mode Ultrasound Diaphragm Measures in Patients With Acute Respiratory Distress in the Emergency Room</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>EDDRA-Repro</t>
+        </is>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
       <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1369,32 +1495,37 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NCT01750944</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>NCT01785368</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Validation of the Measurement of a Systolic Pressure Index at the Toe (IPSO) After a Walking Test</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>IPSO FACTO</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
+          <t>Implementing Referral Guidelines for Imaging Exams Requested Via the Emergency Department: Impact on Exam Relevance and Associated Delays</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>RIU</t>
+        </is>
       </c>
       <c r="H27" t="b">
         <v>0</v>
       </c>
       <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1406,32 +1537,37 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NCT01800084</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>NCT01114347</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Impact of Reconstruction Method (Adaptive Statistical Iterative Reconstruction, Filtered Back Projection) Used in Computed Tomography on Bone Single-Photon- Emission-Computed-Tomography/Computed-Tomography Image Quality</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>AsirTest</t>
-        </is>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
+          <t>Prevention of Nosocomial Escherichia Coli Infections After Placement of an Indwelling Catheter During Pelvic Surgery: a Randomized, Prospective, Double Blind Study for the Evaluation of Cranberry (Vaccinium Macrocarpon) Gel Capsules</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>NosoPink</t>
+        </is>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
       <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1443,29 +1579,38 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NCT01323049</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>NCT01750944</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Comparison of Spontaneous Ventilation Time in Air Without Desaturation After Positive Pressure Extubation Versus Aspiration Extubation When Awakening From General Anesthesia</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="b">
-        <v>0</v>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Validation of the Measurement of a Systolic Pressure Index at the Toe (IPSO) After a Walking Test</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>IPSO FACTO</t>
+        </is>
       </c>
       <c r="H29" t="b">
         <v>0</v>
       </c>
       <c r="I29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1476,32 +1621,37 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>NCT01685645</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Does the Measurement of Pupillary Reactivity to Painful Stimulation by an Automated Pupillometer Determine the Effectiveness of Local Anesthesia When Undergoing General Anesthesia?</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>ALGISCAN</t>
         </is>
       </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
       <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1513,32 +1663,33 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NCT01819714</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>NCT01404819</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Evaluation of the Impact of Care Based on Sensory Support for Elderly Patients Suffering From Alzheimer'S-type Neurodegenerative Disease</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>SensiCare</t>
-        </is>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
+          <t>Evaluation of Brain Damage Resulting From Carotid Endarterectomy With Xenon Anesthesia</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="b">
         <v>0</v>
       </c>
       <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1550,28 +1701,33 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NCT01404819</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NCT01101087</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Evaluation of Brain Damage Resulting From Carotid Endarterectomy With Xenon Anesthesia</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Efficacity of Taurolock in Preventing Primary Bacterial Peritonitis in Patients Undergoing Peritoneal Dialysis for Renal Insufficiency: a Randomized, Multicenter, Double Blind Study With Placebo</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="b">
         <v>0</v>
       </c>
       <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1583,28 +1739,37 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NCT01101087</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>NCT02255994</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Efficacity of Taurolock in Preventing Primary Bacterial Peritonitis in Patients Undergoing Peritoneal Dialysis for Renal Insufficiency: a Randomized, Multicenter, Double Blind Study With Placebo</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="b">
-        <v>0</v>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Comparison of Long-term Results of UGYTEX® Sub-bladder Mesh Placed Via a Transvaginal Transobturator Approach Versus Subvesical Plication Without Reinforcement in the Surgical Treatment of Bladder Prolapse</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>PRO-CURE II</t>
+        </is>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
       <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1616,70 +1781,76 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NCT02255994</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>NCT01739426</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Comparison of Long-term Results of UGYTEX® Sub-bladder Mesh Placed Via a Transvaginal Transobturator Approach Versus Subvesical Plication Without Reinforcement in the Surgical Treatment of Bladder Prolapse</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>PRO-CURE II</t>
-        </is>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
+          <t>Evaluation of Endoscopic Treatment of Zenker's Diverticulum Using the LigaSure Thermal Vessel Sealing System</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>ZENKER LS</t>
+        </is>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
       <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NCT01566058</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>NCT01403220</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Pilot Study Evaluating the Impact of the BB Box System on Postpartum Maternal Anxiety, Post Traumatic Stress and the Establishment of a Mother-child Relationship in the Context of a Premature Birth</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>BBBox</t>
-        </is>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
+          <t>The Efficacity of Hemodiafiltration Versus Hemofiltration for Renal Insufficiency During Intensive Care: a Randomized, Open, Cross-over Study</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="b">
         <v>0</v>
       </c>
       <c r="I35" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J35" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1690,33 +1861,38 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NCT02519764</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NCT01541059</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Evaluation of the Impact of a Hydration Protocol "at Thirst" on Natremia of the Ultra Trail du Mont-Blanc, 2015 Runners</t>
-        </is>
-      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>NATRITRAIL</t>
-        </is>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
+          <t>Postoperative Analgesia in Third Molar Surgery Under General Anesthesia: Ropivacaine Versus Placebo</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>RopiMol</t>
+        </is>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
+      </c>
+      <c r="J36" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1727,66 +1903,80 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>NCT02329613</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Impact of the Introduction of a New Qualitative Composition of the Evening Meal on the Feeding Behavior of Institutionalized Residents of a Long-term Care Unit: a Randomized, Single Center Study</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>IRCAR</t>
         </is>
       </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
       <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NCT01403220</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>NCT01819714</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>The Efficacity of Hemodiafiltration Versus Hemofiltration for Renal Insufficiency During Intensive Care: a Randomized, Open, Cross-over Study</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="b">
-        <v>0</v>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Evaluation of the Impact of Care Based on Sensory Support for Elderly Patients Suffering From Alzheimer'S-type Neurodegenerative Disease</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>SensiCare</t>
+        </is>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1797,32 +1987,37 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NCT01739426</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>NCT02519764</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Evaluation of Endoscopic Treatment of Zenker's Diverticulum Using the LigaSure Thermal Vessel Sealing System</t>
-        </is>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>ZENKER LS</t>
-        </is>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
+          <t>Evaluation of the Impact of a Hydration Protocol "at Thirst" on Natremia of the Ultra Trail du Mont-Blanc, 2015 Runners</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>NATRITRAIL</t>
+        </is>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
       <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1834,32 +2029,37 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>NCT02118259</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Impact of Multidisciplinary Review of Drug Prescriptions on Patient Safety in a Residence for Dependent Elderly</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Rev-EHPAD</t>
         </is>
       </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
       <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1871,33 +2071,38 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NCT01541059</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>NCT01566058</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Postoperative Analgesia in Third Molar Surgery Under General Anesthesia: Ropivacaine Versus Placebo</t>
-        </is>
-      </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>RopiMol</t>
-        </is>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
+          <t>Pilot Study Evaluating the Impact of the BB Box System on Postpartum Maternal Anxiety, Post Traumatic Stress and the Establishment of a Mother-child Relationship in the Context of a Premature Birth</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>BBBox</t>
+        </is>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
       <c r="I41" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1908,33 +2113,38 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NCT02059759</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>NCT02614638</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Immuno-modulation in Amyotrophic Lateral Sclerosis- a Phase II Study of Safety and Activity of Low Dose Interleukin-2</t>
-        </is>
-      </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>IMODALS</t>
-        </is>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
+          <t>Evaluation of the Impact of the Presence of a Pharmacy Technician on the Quality and Cost of Drug Therapy in the Hepato-Gastroenterology Department of the Nîmes University Hospital</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>OPTI-PP</t>
+        </is>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
       <c r="I42" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1943,402 +2153,457 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>NCT02059759</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Immuno-modulation in Amyotrophic Lateral Sclerosis- a Phase II Study of Safety and Activity of Low Dose Interleukin-2</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>IMODALS</t>
+        </is>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>NCT02610452</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Assessing the Impact of Clown Therapy in a Palliative Care Unit: A Prospective, Descriptive Study</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>OUPS</t>
+        </is>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>🟧</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>NCT02598115</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Impact of the Implementation of Collaborative Pharmaceutical Care on Hospital Admission Drug Prescriptions for Patients 65 Years of Age and Older</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>MEDREV</t>
+        </is>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>NCT01649401</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Efficacy of the PARI LC Sprint Sp Nebulizer for Acute Asthma Attack in Hospitalized Children Less Than 36 Months of Age</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>LC SPRINT Sp</t>
+        </is>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>NCT01559168</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Clinical Evaluation of the Uphold Mesh for the Surgical Treatment of Uterine-predominant Prolapse: a Prospective, Multicenter Trial</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>NCT01789801</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>A Randomized Study Evaluating the Role of Ultra-sound Guidance When Drawing Radial Arterial Blood Samples</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>ECHO-PARDIF</t>
+        </is>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>NCT02380820</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Comparative Measurements of Interface Pressures Between Two Pressure-ulcer Prevention Mattresses: Softform Premier and Airsoft Duo</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>SPA2-INVACARE</t>
+        </is>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>NCT02664636</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Pilot Study on the Development of Cortical Reorganization Models for Motor Areas and Inter-hemispheric Equilibrium in the Post-stroke Early Recovery Phase Evaluated by Functional Near-infrared Spectroscopy (fNIRS)</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>ERASM</t>
+        </is>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>NCT02392390</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Effects of Topical Dynamic Phototherapy (TDP) on the Microbiota of Chronic Wounds: a Pilot Study</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>PDT-Bactério</t>
+        </is>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>NCT02636829</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Validation of Self-administered Questionnaire Specifically for Assessing Calcium Intake (QALCIMUM®) in Patients With Multiple Sclerosis (MS) or Chronic Inflammatory Arthritis</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>QALCIMUM</t>
+        </is>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>2015-000060-34</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Effets vasculaires et métaboliques d'une supplémentation en Vitamine D associée à une prise en charge hygiéno-diététique chez l'Adolescent Obèse: étude prospective, randomisée, contrôlée 
  Effets vasculaires et métaboliques d'une supplémentation en Vitamine D associée à une prise en charge hygiéno-diététique chez l'Adolescent Obèse: étude prospective, randomisée, contrôlée</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>VIDADO 
  VIDADO</t>
         </is>
       </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>NCT02664636</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Pilot Study on the Development of Cortical Reorganization Models for Motor Areas and Inter-hemispheric Equilibrium in the Post-stroke Early Recovery Phase Evaluated by Functional Near-infrared Spectroscopy (fNIRS)</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>ERASM</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>NCT02614573</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>International Normalised Ratio Evaluation by Generalist Practitioners in Full-time Care Establishments for the Elderly: a Pilot Study</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>INR-Cap pilote</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>NCT01649401</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Efficacy of the PARI LC Sprint Sp Nebulizer for Acute Asthma Attack in Hospitalized Children Less Than 36 Months of Age</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>LC SPRINT Sp</t>
-        </is>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>NCT02400151</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Vascular and Metabolic Effects of Vitamin D Supplementation Associated With Lifestyle Management in Obese Adolescents: Prospective, Randomized, Controlled Trial</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>VIDADO</t>
-        </is>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>NCT01559168</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Clinical Evaluation of the Uphold Mesh for the Surgical Treatment of Uterine-predominant Prolapse: a Prospective, Multicenter Trial</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>NCT01789801</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>A Randomized Study Evaluating the Role of Ultra-sound Guidance When Drawing Radial Arterial Blood Samples</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>ECHO-PARDIF</t>
-        </is>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>NCT02610452</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Assessing the Impact of Clown Therapy in a Palliative Care Unit: A Prospective, Descriptive Study</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>OUPS</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>NCT02380820</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Comparative Measurements of Interface Pressures Between Two Pressure-ulcer Prevention Mattresses: Softform Premier and Airsoft Duo</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>SPA2-INVACARE</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>NCT02126930</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Impact of a Pharmaceutical Consultation at Hospital Discharge on Adherence to Anti-infective Treatment After Returning Home</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>CPS-INFECTIO</t>
-        </is>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>NCT02392390</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Effects of Topical Dynamic Phototherapy (TDP) on the Microbiota of Chronic Wounds: a Pilot Study</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>PDT-Bactério</t>
-        </is>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
       <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2350,70 +2615,80 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NCT02614638</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>NCT02400151</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Evaluation of the Impact of the Presence of a Pharmacy Technician on the Quality and Cost of Drug Therapy in the Hepato-Gastroenterology Department of the Nîmes University Hospital</t>
-        </is>
-      </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>OPTI-PP</t>
-        </is>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
+          <t>Vascular and Metabolic Effects of Vitamin D Supplementation Associated With Lifestyle Management in Obese Adolescents: Prospective, Randomized, Controlled Trial</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>VIDADO</t>
+        </is>
       </c>
       <c r="H54" t="b">
         <v>0</v>
       </c>
       <c r="I54" t="b">
         <v>0</v>
+      </c>
+      <c r="J54" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NCT02598115</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>NCT02614573</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Impact of the Implementation of Collaborative Pharmaceutical Care on Hospital Admission Drug Prescriptions for Patients 65 Years of Age and Older</t>
-        </is>
-      </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>MEDREV</t>
-        </is>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
+          <t>International Normalised Ratio Evaluation by Generalist Practitioners in Full-time Care Establishments for the Elderly: a Pilot Study</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>INR-Cap pilote</t>
+        </is>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J55" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2424,32 +2699,37 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NCT02636829</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>NCT02126930</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Validation of Self-administered Questionnaire Specifically for Assessing Calcium Intake (QALCIMUM®) in Patients With Multiple Sclerosis (MS) or Chronic Inflammatory Arthritis</t>
-        </is>
-      </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>QALCIMUM</t>
-        </is>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
+          <t>Impact of a Pharmaceutical Consultation at Hospital Discharge on Adherence to Anti-infective Treatment After Returning Home</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>CPS-INFECTIO</t>
+        </is>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
       <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2461,32 +2741,37 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NCT02610647</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>NCT02325063</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Functional Significance of Complexity Measures in the Sensory-motor Behavior: Are There Potential Clinical Applications?</t>
-        </is>
-      </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>NEURO COMP</t>
-        </is>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
+          <t>Leukocyte and Platelet Rich Plasma Versus Type a Botulinum Toxin Versus Glucocorticoids for the Treatment of Lateral Epicondylalgia: a Randomized, Multicenter, Double-blind, Therapeutic Trial with Three Parallel Arms</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>LET</t>
+        </is>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
       <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2498,32 +2783,33 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NCT01905644</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>NCT01536301</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Verifying Anal Sphincter Integrity in the Delivery Room Using a Specific Perineal Ultrasound: Impact on Immediate Care and Postpartum Anal Incontinence Rates in Mothers Undergoing Vaginal Birth</t>
-        </is>
-      </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>OASIS 2</t>
-        </is>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
+          <t>Evaluation of Oxycodone Hydrochloride Versus Intravenous Morphine Hydrochloride for Postoperative Analgesia After Hip Prosthetic Surgery</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="b">
         <v>0</v>
       </c>
       <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2535,32 +2821,37 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NCT02269020</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>NCT02609191</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Unilateral Selective Neck Dissection at Lymph Node Levels IIa, III and IV Using a Robot-assisted Transaxillary Approach in Patients With Squamous Cell Carcinoma of the Epi-larynx: the First Three Patients</t>
-        </is>
-      </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>RoboCurage ORL</t>
-        </is>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
+          <t>Assessment of Body Composition Via Dual-energy X-ray Absorptiometry Bone Densitometry: Cross Calibration and Reproducibility Between the "Stratos DR" and "Discovery A" Bone Densitometers</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>STRATOS</t>
+        </is>
       </c>
       <c r="H59" t="b">
         <v>0</v>
       </c>
       <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2572,32 +2863,37 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NCT02609191</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>NCT02614651</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Assessment of Body Composition Via Dual-energy X-ray Absorptiometry Bone Densitometry: Cross Calibration and Reproducibility Between the "Stratos DR" and "Discovery A" Bone Densitometers</t>
-        </is>
-      </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>STRATOS</t>
-        </is>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
+          <t>Prospective Pilot Study on the Quantitative Evaluation of Vision Parameters Needed by Virtual Reality Goggle Displays for Subjects With Concentric Visual Field Constriction. AUgmented REality for the Visually Impaired - Part 1</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>AUREVI 1</t>
+        </is>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
       <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2609,32 +2905,37 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NCT02614651</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>NCT02269020</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Prospective Pilot Study on the Quantitative Evaluation of Vision Parameters Needed by Virtual Reality Goggle Displays for Subjects With Concentric Visual Field Constriction. AUgmented REality for the Visually Impaired - Part 1</t>
-        </is>
-      </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>AUREVI 1</t>
-        </is>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
+          <t>Unilateral Selective Neck Dissection at Lymph Node Levels IIa, III and IV Using a Robot-assisted Transaxillary Approach in Patients With Squamous Cell Carcinoma of the Epi-larynx: the First Three Patients</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>RoboCurage ORL</t>
+        </is>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
       <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2646,32 +2947,37 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NCT02325063</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>NCT02610647</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Leukocyte and Platelet Rich Plasma Versus Type a Botulinum Toxin Versus Glucocorticoids for the Treatment of Lateral Epicondylalgia: a Randomized, Multicenter, Double-blind, Therapeutic Trial with Three Parallel Arms</t>
-        </is>
-      </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>LET</t>
-        </is>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
+          <t>Functional Significance of Complexity Measures in the Sensory-motor Behavior: Are There Potential Clinical Applications?</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>NEURO COMP</t>
+        </is>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
       <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2683,32 +2989,37 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NCT02273687</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>NCT01905644</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Analysis of Time-motion-mode Ultrasound Diaphragm Measures in Patients With Acute Respiratory Distress in Emergency Department: Predicting Respiratory Prognosis</t>
-        </is>
-      </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>EDDRAPro</t>
-        </is>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
+          <t>Verifying Anal Sphincter Integrity in the Delivery Room Using a Specific Perineal Ultrasound: Impact on Immediate Care and Postpartum Anal Incontinence Rates in Mothers Undergoing Vaginal Birth</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>OASIS 2</t>
+        </is>
       </c>
       <c r="H63" t="b">
         <v>0</v>
       </c>
       <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2720,28 +3031,37 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NCT01536301</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>NCT02273687</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Evaluation of Oxycodone Hydrochloride Versus Intravenous Morphine Hydrochloride for Postoperative Analgesia After Hip Prosthetic Surgery</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="b">
-        <v>0</v>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Analysis of Time-motion-mode Ultrasound Diaphragm Measures in Patients With Acute Respiratory Distress in Emergency Department: Predicting Respiratory Prognosis</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>EDDRAPro</t>
+        </is>
       </c>
       <c r="H64" t="b">
         <v>0</v>
       </c>
       <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2753,28 +3073,37 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NCT02805049</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>NCT04007302</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Pharmacokinetic Study on Echinocandins for Patients With Septic Shock Following Secondary Peritonitis</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="b">
-        <v>0</v>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Modification de l'activité du Cortex préfrontal Induite Par Distraction en réalité Virtuelle Chez le Sujet Lombalgique Chronique.</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>NGUYEN</t>
+        </is>
       </c>
       <c r="H65" t="b">
         <v>0</v>
       </c>
       <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2786,27 +3115,29 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
           <t>NCT01380860</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>Primary Prevention of Peristomial Hernias Via Parietal Prostheses: a Randomized, Multicentric Study</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>GRECCAR 07</t>
         </is>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2814,6 +3145,9 @@
       <c r="I66" t="b">
         <v>1</v>
       </c>
+      <c r="J66" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2823,32 +3157,37 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NCT02598141</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>NCT03356847</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Comparative Evaluation of Two Techniques for the Treatment of Per-operative Bacteriological Samples Associated With Osteo-articular Sepsis: Grinding (Ultra Turrax) Versus Standard Methods</t>
-        </is>
-      </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>IOAP Turrax</t>
-        </is>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
+          <t>Evaluation of the Rotational Stability of the Monofocal SISA Implant Following Cataract Surgery</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>SISALens</t>
+        </is>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
       <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2860,32 +3199,37 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NCT04007302</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>NCT03162757</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Modification de l'activité du Cortex préfrontal Induite Par Distraction en réalité Virtuelle Chez le Sujet Lombalgique Chronique.</t>
-        </is>
-      </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>NGUYEN</t>
-        </is>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
+          <t>Comparison of Ultrasound-guided Central Venous Catherterization Via the Lower Internal Jugular Vein or the Subclavian Vein</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>JI vs SC</t>
+        </is>
       </c>
       <c r="H68" t="b">
         <v>0</v>
       </c>
       <c r="I68" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2897,32 +3241,37 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
           <t>NCT03998930</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>Brain-computer Interface in the Diagnosis of Disorders of Consciousness</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>AWAKE</t>
         </is>
       </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
       <c r="I69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2934,32 +3283,37 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NCT03162757</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>NCT03633578</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Comparison of Ultrasound-guided Central Venous Catherterization Via the Lower Internal Jugular Vein or the Subclavian Vein</t>
-        </is>
-      </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>JI vs SC</t>
-        </is>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
+          <t>Relationship Between Complexity and Pain in a Walking Task With Distraction in the Chronic Low Back Pain Patient by Fractal Analysis: Pilot Study</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>CoDiLoBP</t>
+        </is>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
       <c r="I70" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2971,32 +3325,37 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NCT01558856</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>NCT02598141</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Prospective Randomized Trial Comparing Unilateral and Bilateral Neuromodulation Tests in the Treatment of Refractory Idiopathic Overactive Bladder</t>
-        </is>
-      </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>HAVIR Bi</t>
-        </is>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
+          <t>Comparative Evaluation of Two Techniques for the Treatment of Per-operative Bacteriological Samples Associated With Osteo-articular Sepsis: Grinding (Ultra Turrax) Versus Standard Methods</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>IOAP Turrax</t>
+        </is>
       </c>
       <c r="H71" t="b">
         <v>0</v>
       </c>
       <c r="I71" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3008,33 +3367,38 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NCT02583997</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>NCT01558856</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Non-closure of Alveoli After Avulsion of Wisdom Teeth: a Randomized, Open, Multicenter Trial</t>
-        </is>
-      </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>AlvéCare</t>
-        </is>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
+          <t>Prospective Randomized Trial Comparing Unilateral and Bilateral Neuromodulation Tests in the Treatment of Refractory Idiopathic Overactive Bladder</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>HAVIR Bi</t>
+        </is>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
       <c r="I72" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J72" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -3045,33 +3409,38 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NCT03356847</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>NCT02583997</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Evaluation of the Rotational Stability of the Monofocal SISA Implant Following Cataract Surgery</t>
-        </is>
-      </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>SISALens</t>
-        </is>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
+          <t>Non-closure of Alveoli After Avulsion of Wisdom Teeth: a Randomized, Open, Multicenter Trial</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>AlvéCare</t>
+        </is>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
       <c r="I73" t="b">
         <v>0</v>
+      </c>
+      <c r="J73" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -3082,32 +3451,33 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NCT02116387</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>NCT02805049</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Traditional Rehabilitation Versus Rehabilitation With the Imoove® Device for Spinal Musculoskeletal Disorders: a Randomised Controlled Trial</t>
-        </is>
-      </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>IMOOVE IT</t>
-        </is>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
+          <t>Pharmacokinetic Study on Echinocandins for Patients With Septic Shock Following Secondary Peritonitis</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="b">
         <v>0</v>
       </c>
       <c r="I74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3119,32 +3489,37 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NCT03633578</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>NCT02116387</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Relationship Between Complexity and Pain in a Walking Task With Distraction in the Chronic Low Back Pain Patient by Fractal Analysis: Pilot Study</t>
-        </is>
-      </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>CoDiLoBP</t>
-        </is>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
+          <t>Traditional Rehabilitation Versus Rehabilitation With the Imoove® Device for Spinal Musculoskeletal Disorders: a Randomised Controlled Trial</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>IMOOVE IT</t>
+        </is>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
       <c r="I75" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3156,32 +3531,37 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NCT03407963</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>NCT02739880</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Feasibility of Prostatic Arterial Embolization in Low-risk Patients With Unilateral Prostate Cancer Under Active Surveillance: Monocentric Pilot Study</t>
-        </is>
-      </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>CAPEMBOL</t>
-        </is>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
+          <t>Evaluation of the Effect of Multi-point Intra-mucosal Injections of Cross-linked Hyaluronic Acid (DESIRIAL®) in the Vaginal Vestibule: A Prospective, Bicentric, Pilot Study</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>INREG 1</t>
+        </is>
       </c>
       <c r="H76" t="b">
         <v>0</v>
       </c>
       <c r="I76" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3193,34 +3573,35 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NCT02299440</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>NCT02892227</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Evaluation of the Effects of Ketamine in the Acute Phase of Suicidal Ideation: a Multicenter Randomized Double-blind Trial</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>KETIS</t>
-        </is>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>JECICA</t>
+        </is>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="b">
         <v>1</v>
       </c>
+      <c r="J77" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3230,32 +3611,37 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NCT02739880</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>NCT03244813</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Evaluation of the Effect of Multi-point Intra-mucosal Injections of Cross-linked Hyaluronic Acid (DESIRIAL®) in the Vaginal Vestibule: A Prospective, Bicentric, Pilot Study</t>
-        </is>
-      </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>INREG 1</t>
-        </is>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
+          <t>Evaluation of the Impact of a Personalized Program of Adapted Physical Activates in Patients With Parkinson Disease</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>ACTIPARK</t>
+        </is>
       </c>
       <c r="H78" t="b">
         <v>0</v>
       </c>
       <c r="I78" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3267,30 +3653,39 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>NCT02892227</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>NCT02299440</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>JECICA</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
+          <t>Evaluation of the Effects of Ketamine in the Acute Phase of Suicidal Ideation: a Multicenter Randomized Double-blind Trial</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>KETIS</t>
+        </is>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="b">
         <v>1</v>
       </c>
+      <c r="J79" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3300,32 +3695,37 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
           <t>NCT03603470</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr">
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>Total Hip Arthroplasty Instability and Lumbo-pelvic Kinematics: EOS Imaging Assessment of Variation in Spinal and Pelvic Parameters From Standing to Sitting</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>HIPEOS</t>
         </is>
       </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
       <c r="H80" t="b">
         <v>0</v>
       </c>
       <c r="I80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3337,32 +3737,37 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NCT04463147</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>NCT02932696</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Does the Needle-pilot Device Improve the Success of Vascular Catheterization Compared to the Classical Ultrasound-guided Technique</t>
-        </is>
-      </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>NEEDLE-VISIO</t>
-        </is>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
+          <t>Post Infarction Exercise Training Effects on Systolic and Diastolic Myocardial Function Assessed by 2D Strain Ultrasound</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>TrainStrain</t>
+        </is>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
       <c r="I81" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3374,32 +3779,37 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NCT02932696</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>NCT03407963</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Post Infarction Exercise Training Effects on Systolic and Diastolic Myocardial Function Assessed by 2D Strain Ultrasound</t>
-        </is>
-      </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>TrainStrain</t>
-        </is>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
+          <t>Feasibility of Prostatic Arterial Embolization in Low-risk Patients With Unilateral Prostate Cancer Under Active Surveillance: Monocentric Pilot Study</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>CAPEMBOL</t>
+        </is>
       </c>
       <c r="H82" t="b">
         <v>0</v>
       </c>
       <c r="I82" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3411,32 +3821,37 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NCT03244813</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>NCT04463147</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Evaluation of the Impact of a Personalized Program of Adapted Physical Activates in Patients With Parkinson Disease</t>
-        </is>
-      </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>ACTIPARK</t>
-        </is>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
+          <t>Does the Needle-pilot Device Improve the Success of Vascular Catheterization Compared to the Classical Ultrasound-guided Technique</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>NEEDLE-VISIO</t>
+        </is>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
       <c r="I83" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3448,32 +3863,39 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NCT02664623</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
+          <t>2014-005534-55</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Effectiveness of Personalized Nutrition Advice Delivered Via Dietary Consultations for Optimizing Dietary Calcium Intake in Patients With Multiple Sclerosis (MS) and Monitored as Outpatients: a Randomized, Single-blind, Bicentric Study</t>
-        </is>
-      </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>CalciCoach</t>
-        </is>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
+          <t>Etude de la variabilité pharmacocinétique du sunitinib chez les patients atteints de cancer du rein métastatique: recherche de déterminants pharmacogénétiques 
+ Etude de la variabilité pharmacocinétique du sunitinib chez les patients atteints de cancer du rein métastatique: recherche de déterminants pharmacogénétiques</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>GenCInib-suni 
+ GenCInib-suni</t>
+        </is>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
       <c r="I84" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3485,32 +3907,37 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NCT03868189</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>NCT02664623</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Interest of Ultrasonography in Electroneuromyography: Single-blind Randomised Controlled Clinical Trial</t>
-        </is>
-      </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>US ENMG</t>
-        </is>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
+          <t>Effectiveness of Personalized Nutrition Advice Delivered Via Dietary Consultations for Optimizing Dietary Calcium Intake in Patients With Multiple Sclerosis (MS) and Monitored as Outpatients: a Randomized, Single-blind, Bicentric Study</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>CalciCoach</t>
+        </is>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
       <c r="I85" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3520,36 +3947,39 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr"/>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2014-005534-55</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
+          <t>NCT03868189</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Etude de la variabilité pharmacocinétique du sunitinib chez les patients atteints de cancer du rein métastatique: recherche de déterminants pharmacogénétiques 
- Etude de la variabilité pharmacocinétique du sunitinib chez les patients atteints de cancer du rein métastatique: recherche de déterminants pharmacogénétiques</t>
-        </is>
-      </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>GenCInib-suni 
- GenCInib-suni</t>
-        </is>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
+          <t>Interest of Ultrasonography in Electroneuromyography: Single-blind Randomised Controlled Clinical Trial</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>US ENMG</t>
+        </is>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
       <c r="I86" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3561,32 +3991,37 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
           <t>NCT03564951</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>Comparison of Ablation of Anisochronous Zones vs Spatio-temporal Dispersal Zones in Addition to Antral Electrical Isolation During Radiofrequency Treatment of Paroxysmal or Persistent Atrial Fibrillation</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>ISOCHRONE-AF</t>
         </is>
       </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
       <c r="I87" t="b">
+        <v>0</v>
+      </c>
+      <c r="J87" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3598,32 +4033,37 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NCT02683304</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>NCT02304679</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>S100B Protein Measures in the Care of Non-traumatic Headaches in the Emergency Department</t>
-        </is>
-      </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>S100B-Céph</t>
-        </is>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
+          <t>The Effectiveness of Low Energy Shockwave Therapy for Improving Erectile Dysfunction in Men: a Double Blind Randomized Controlled Trial</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Shock-ED</t>
+        </is>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
       <c r="I88" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3635,32 +4075,37 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
           <t>NCT03562754</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>Randomized Controlled Trial of Intermittent Hemodialysis With Regional Citrate Anticoagulation Versus Systemic Low Dose Heparin Anticoagulation in Patients at Risk of Bleeding in Nephrology Intensive Care Unit</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>ROBIN</t>
         </is>
       </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
       <c r="I89" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3672,32 +4117,37 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>NCT03600636</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>NCT04360304</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Medium-term Follow-up of Patients With Obstetric Antiphospholipid Syndrome: MRI Study of White Matter</t>
-        </is>
-      </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>APS Follow Up</t>
-        </is>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
+          <t>Assessment of Agreement Between Two Measurement Methods of Left Ventricular Outflow Tract (LVOT) Velocity Time Integral (VTI) : Automatic Versus Manual, in Critically Ill Patients in Acute Circulatory Failure</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>AUTO-VTI</t>
+        </is>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
       <c r="I90" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3709,32 +4159,37 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NCT04360304</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>NCT02683304</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Assessment of Agreement Between Two Measurement Methods of Left Ventricular Outflow Tract (LVOT) Velocity Time Integral (VTI) : Automatic Versus Manual, in Critically Ill Patients in Acute Circulatory Failure</t>
-        </is>
-      </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>AUTO-VTI</t>
-        </is>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
+          <t>S100B Protein Measures in the Care of Non-traumatic Headaches in the Emergency Department</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>S100B-Céph</t>
+        </is>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
       <c r="I91" t="b">
+        <v>0</v>
+      </c>
+      <c r="J91" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3746,32 +4201,37 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NCT02304679</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>NCT03600636</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>The Effectiveness of Low Energy Shockwave Therapy for Improving Erectile Dysfunction in Men: a Double Blind Randomized Controlled Trial</t>
-        </is>
-      </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Shock-ED</t>
-        </is>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
+          <t>Medium-term Follow-up of Patients With Obstetric Antiphospholipid Syndrome: MRI Study of White Matter</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>APS Follow Up</t>
+        </is>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
       <c r="I92" t="b">
+        <v>0</v>
+      </c>
+      <c r="J92" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3783,32 +4243,37 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>NCT03039673</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>NCT03628248</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Efficacy and Safety of Low-dose IL-2 (Ld-IL-2) as a Treg Enhancer for Controlling Neuro-inflammation in Newly Diagnosed Amyotrophic Lateral Sclerosis (ALS) Patients: A Randomized, Double-blind, Placebo- Controlled, Phase-II Proof of Concept/ Proof of Mechanism Clinical Trial</t>
-        </is>
-      </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>MIROCALS</t>
-        </is>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
+          <t>Effect of Endovascular Inferior Mesenteric Artery Embolization on Colonic Perfusion Prior to Rectal Surgery for Rectal Tumor or Sigmoid Colon Surgery - A Single-center Feasibility Pilot Study.</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>AMIREMBOL</t>
+        </is>
       </c>
       <c r="H93" t="b">
         <v>0</v>
       </c>
       <c r="I93" t="b">
+        <v>0</v>
+      </c>
+      <c r="J93" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3820,32 +4285,37 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>NCT04943133</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>NCT03039673</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Study of the Agreement Between Two Methods of Measuring Brachial Systolic Pressure (SFATI or Auscultatory) in Pregnant Women With or Without Blood Pressure Disorders and Search for Markers of Arterial Stiffness in Pre-eclampsia.</t>
-        </is>
-      </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>SFATI GROPE</t>
-        </is>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
+          <t>Efficacy and Safety of Low-dose IL-2 (Ld-IL-2) as a Treg Enhancer for Controlling Neuro-inflammation in Newly Diagnosed Amyotrophic Lateral Sclerosis (ALS) Patients: A Randomized, Double-blind, Placebo- Controlled, Phase-II Proof of Concept/ Proof of Mechanism Clinical Trial</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>MIROCALS</t>
+        </is>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
       <c r="I94" t="b">
+        <v>0</v>
+      </c>
+      <c r="J94" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3857,103 +4327,118 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NCT03628248</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>NCT03636789</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Effect of Endovascular Inferior Mesenteric Artery Embolization on Colonic Perfusion Prior to Rectal Surgery for Rectal Tumor or Sigmoid Colon Surgery - A Single-center Feasibility Pilot Study.</t>
-        </is>
-      </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>AMIREMBOL</t>
-        </is>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
+          <t>Evaluation of the Prevalence of Oculomotor Disorders in Patients With Radiologically Isolated Syndrome</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>OCRIS</t>
+        </is>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
       <c r="I95" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NCT03636789</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>NCT05019482</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Evaluation of the Prevalence of Oculomotor Disorders in Patients With Radiologically Isolated Syndrome</t>
-        </is>
-      </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>OCRIS</t>
-        </is>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
+          <t>Effects of an Intervention Among University Student to Promote Physical Activity and Reduce the Sedentary Time During COVID-19 Pandemic</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr"/>
       <c r="H96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J96" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>NCT05019482</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>NCT04473508</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Effects of an Intervention Among University Student to Promote Physical Activity and Reduce the Sedentary Time During COVID-19 Pandemic</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="b">
-        <v>1</v>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Erectus Nerve Block for Lumbar Spine Surgery : a Prospective Randomized Study</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>EFABE</t>
+        </is>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J97" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3964,32 +4449,37 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NCT04473508</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>NCT03946488</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Erectus Nerve Block for Lumbar Spine Surgery : a Prospective Randomized Study</t>
-        </is>
-      </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>EFABE</t>
-        </is>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
+          <t>Évaluation Des modalités Optimales de Pilotage et de l'Impact Sur Les capacités de préhension d'Une Stimulation électrique Fonctionnelle Des Muscles Extenseurs Des Doigts Chez le Patient hémiplégique en Phase Chronique</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>PREHENSTROKE</t>
+        </is>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
       <c r="I98" t="b">
+        <v>0</v>
+      </c>
+      <c r="J98" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4001,32 +4491,37 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NCT03946488</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>NCT04943133</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Évaluation Des modalités Optimales de Pilotage et de l'Impact Sur Les capacités de préhension d'Une Stimulation électrique Fonctionnelle Des Muscles Extenseurs Des Doigts Chez le Patient hémiplégique en Phase Chronique</t>
-        </is>
-      </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>PREHENSTROKE</t>
-        </is>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
+          <t>Study of the Agreement Between Two Methods of Measuring Brachial Systolic Pressure (SFATI or Auscultatory) in Pregnant Women With or Without Blood Pressure Disorders and Search for Markers of Arterial Stiffness in Pre-eclampsia.</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>SFATI GROPE</t>
+        </is>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
       <c r="I99" t="b">
+        <v>0</v>
+      </c>
+      <c r="J99" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4038,32 +4533,37 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>NCT04178148</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>NCT03646786</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Personalized Dose Optimization of Amikacin Guided by Pharmacokinetic Modeling Software in Patients With Septic Shock</t>
-        </is>
-      </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>AMINO BESTDOSE</t>
-        </is>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
+          <t>Prospective Pilot Study of Multi-actor Tolerance Evaluation Using the VIRARE Device (VIrtual Reality Assisted Rehabilitation) in Visually Impaired Patients</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>VIRARE</t>
+        </is>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
       <c r="I100" t="b">
+        <v>0</v>
+      </c>
+      <c r="J100" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4075,32 +4575,37 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>NCT03428165</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>NCT04178148</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Transfer of Frozen Embryos in NATural Cycle: Evaluation of Impact of Spontaneous Versus HCG-triggered Ovulation on Pregnancy Rate - Bicentric Prospective Open Randomized Controlled Trial</t>
-        </is>
-      </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>TECNAT</t>
-        </is>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
+          <t>Personalized Dose Optimization of Amikacin Guided by Pharmacokinetic Modeling Software in Patients With Septic Shock</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>AMINO BESTDOSE</t>
+        </is>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
       <c r="I101" t="b">
+        <v>0</v>
+      </c>
+      <c r="J101" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4112,27 +4617,29 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
           <t>NCT04742374</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr">
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>Comparison of the Effects of 2 Therapeutic Plasmapheresis Techniques: Single Plasma Exchange and Double Filtration Plasmapheresis (DFPP) on Peripheral Lymphocyte Phenotypes in Patients With Chronic Inflammatory Demyelinating Polyradiculoneuropathy (CIDP). A Monocentric Prospective Study With a Single-Case Experimental Design</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>LYMPHOARESIS</t>
         </is>
-      </c>
-      <c r="G102" t="b">
-        <v>1</v>
       </c>
       <c r="H102" t="b">
         <v>1</v>
@@ -4140,6 +4647,9 @@
       <c r="I102" t="b">
         <v>1</v>
       </c>
+      <c r="J102" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4149,32 +4659,37 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>NCT04957186</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>NCT04366453</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Development of a Multidisciplinary Care Pathway With Postoperative Follow-up Via Electronic Patient Reported Outcomes (ePRO) of Complications of Breast Cancer Surgery to Optimise Patients' Quality of Life.</t>
-        </is>
-      </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>BEAUTIFY-2</t>
-        </is>
-      </c>
-      <c r="G103" t="b">
-        <v>0</v>
+          <t>Evaluation of the Ejection Fraction of the Left Ventricle in the Emergency Room by a New Automatic Evaluation Tool in a Pocket Ultrasound Scanner: A Reproducibility Study</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>ReproAuto_FEVG</t>
+        </is>
       </c>
       <c r="H103" t="b">
         <v>0</v>
       </c>
       <c r="I103" t="b">
+        <v>0</v>
+      </c>
+      <c r="J103" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4186,32 +4701,37 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>NCT04366453</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>NCT04174092</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Evaluation of the Ejection Fraction of the Left Ventricle in the Emergency Room by a New Automatic Evaluation Tool in a Pocket Ultrasound Scanner: A Reproducibility Study</t>
-        </is>
-      </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>ReproAuto_FEVG</t>
-        </is>
-      </c>
-      <c r="G104" t="b">
-        <v>0</v>
+          <t>Catastrophism in Chronic Inflammatory Rheumatism</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>CRIC</t>
+        </is>
       </c>
       <c r="H104" t="b">
         <v>0</v>
       </c>
       <c r="I104" t="b">
+        <v>0</v>
+      </c>
+      <c r="J104" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4223,32 +4743,37 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NCT03464760</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>NCT04957186</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Evaluation of the Effect of Spirulina-Silicon Supplementation on the Morphological, Biomechanical and Functional Characteristics of the Arterial Wall in the Elderly</t>
-        </is>
-      </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>ANGIO SPIRUL</t>
-        </is>
-      </c>
-      <c r="G105" t="b">
-        <v>0</v>
+          <t>Development of a Multidisciplinary Care Pathway With Postoperative Follow-up Via Electronic Patient Reported Outcomes (ePRO) of Complications of Breast Cancer Surgery to Optimise Patients' Quality of Life.</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>BEAUTIFY-2</t>
+        </is>
       </c>
       <c r="H105" t="b">
         <v>0</v>
       </c>
       <c r="I105" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4260,32 +4785,37 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>NCT04274595</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>NCT03280797</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Role of Reverse Transcriptase Inhibitors in the Treatment of Psoriasis: A Proof of Biological Concept Test</t>
-        </is>
-      </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>PSORTI-BIO</t>
-        </is>
-      </c>
-      <c r="G106" t="b">
-        <v>0</v>
+          <t>Feasibility of a Cytokine Expression Profile in Immune Cells as an Orientation Tool in Therapeutic Decisions for Auto-inflammatory and Auto-immune Diseases</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>IL-MAI</t>
+        </is>
       </c>
       <c r="H106" t="b">
         <v>0</v>
       </c>
       <c r="I106" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4297,32 +4827,37 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>NCT04174092</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>NCT03867305</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Catastrophism in Chronic Inflammatory Rheumatism</t>
-        </is>
-      </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>CRIC</t>
-        </is>
-      </c>
-      <c r="G107" t="b">
-        <v>0</v>
+          <t>Evaluation of the Action of MOBIDERM® on Periarticular Edema After Total Knee Prosthesis - Randomized Controlled Pilot Study</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>MOBŒDEM</t>
+        </is>
       </c>
       <c r="H107" t="b">
         <v>0</v>
       </c>
       <c r="I107" t="b">
+        <v>0</v>
+      </c>
+      <c r="J107" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4334,32 +4869,37 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>NCT03280797</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>NCT02742025</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Feasibility of a Cytokine Expression Profile in Immune Cells as an Orientation Tool in Therapeutic Decisions for Auto-inflammatory and Auto-immune Diseases</t>
-        </is>
-      </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>IL-MAI</t>
-        </is>
-      </c>
-      <c r="G108" t="b">
-        <v>0</v>
+          <t>Evaluation of the Effect of an Educational and Explanatory Program for a Surgical Act Provided to the Patient Prior to Said Act on Preoperative Anxiety - a Pilot Study at the Nîmes University Hospital on Elective Coronary Angiography</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>HEART-LINK</t>
+        </is>
       </c>
       <c r="H108" t="b">
         <v>0</v>
       </c>
       <c r="I108" t="b">
+        <v>0</v>
+      </c>
+      <c r="J108" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4371,32 +4911,37 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>NCT03867305</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>NCT05415605</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Evaluation of the Action of MOBIDERM® on Periarticular Edema After Total Knee Prosthesis - Randomized Controlled Pilot Study</t>
-        </is>
-      </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>MOBŒDEM</t>
-        </is>
-      </c>
-      <c r="G109" t="b">
-        <v>0</v>
+          <t>Ultrasound Evaluation of Alveolar Stress by Measurement of Ultrasound Pleural Strain in Healthy Subjects</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>LUNGSTRAIN</t>
+        </is>
       </c>
       <c r="H109" t="b">
         <v>0</v>
       </c>
       <c r="I109" t="b">
+        <v>0</v>
+      </c>
+      <c r="J109" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4408,32 +4953,37 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>NCT04641169</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>NCT03464760</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Evaluation of the Ejection Fraction of the Left Ventricle Ejection Fraction (LVEF) by a New Automatic Evaluation Tool in a Pocket Ultrasound Device: Study of Concordance With the Estimated by Cardiac Magnetic Reasoning Imaging (MRI)</t>
-        </is>
-      </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>CONCORDANCEVEF</t>
-        </is>
-      </c>
-      <c r="G110" t="b">
-        <v>0</v>
+          <t>Evaluation of the Effect of Spirulina-Silicon Supplementation on the Morphological, Biomechanical and Functional Characteristics of the Arterial Wall in the Elderly</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>ANGIO SPIRUL</t>
+        </is>
       </c>
       <c r="H110" t="b">
         <v>0</v>
       </c>
       <c r="I110" t="b">
+        <v>0</v>
+      </c>
+      <c r="J110" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4445,32 +4995,37 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>NCT02742025</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>NCT04274595</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Evaluation of the Effect of an Educational and Explanatory Program for a Surgical Act Provided to the Patient Prior to Said Act on Preoperative Anxiety - a Pilot Study at the Nîmes University Hospital on Elective Coronary Angiography</t>
-        </is>
-      </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>HEART-LINK</t>
-        </is>
-      </c>
-      <c r="G111" t="b">
-        <v>0</v>
+          <t>Role of Reverse Transcriptase Inhibitors in the Treatment of Psoriasis: A Proof of Biological Concept Test</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>PSORTI-BIO</t>
+        </is>
       </c>
       <c r="H111" t="b">
         <v>0</v>
       </c>
       <c r="I111" t="b">
+        <v>0</v>
+      </c>
+      <c r="J111" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4482,32 +5037,37 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>NCT04802226</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>NCT04641169</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Optimization of the Self-exclusion Procedure</t>
-        </is>
-      </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>OSE</t>
-        </is>
-      </c>
-      <c r="G112" t="b">
-        <v>0</v>
+          <t>Evaluation of the Ejection Fraction of the Left Ventricle Ejection Fraction (LVEF) by a New Automatic Evaluation Tool in a Pocket Ultrasound Device: Study of Concordance With the Estimated by Cardiac Magnetic Reasoning Imaging (MRI)</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>CONCORDANCEVEF</t>
+        </is>
       </c>
       <c r="H112" t="b">
         <v>0</v>
       </c>
       <c r="I112" t="b">
+        <v>0</v>
+      </c>
+      <c r="J112" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4519,32 +5079,37 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>NCT05415605</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>NCT03428165</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Ultrasound Evaluation of Alveolar Stress by Measurement of Ultrasound Pleural Strain in Healthy Subjects</t>
-        </is>
-      </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>LUNGSTRAIN</t>
-        </is>
-      </c>
-      <c r="G113" t="b">
-        <v>0</v>
+          <t>Transfer of Frozen Embryos in NATural Cycle: Evaluation of Impact of Spontaneous Versus HCG-triggered Ovulation on Pregnancy Rate - Bicentric Prospective Open Randomized Controlled Trial</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>TECNAT</t>
+        </is>
       </c>
       <c r="H113" t="b">
         <v>0</v>
       </c>
       <c r="I113" t="b">
+        <v>0</v>
+      </c>
+      <c r="J113" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4556,32 +5121,37 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
           <t>NCT03704545</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr">
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>Clinical Impact of Pharmaceutical Consultations in Patients Treated for Chronic Obstructive Pulmonary Disease at Home</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>BPCObs</t>
         </is>
       </c>
-      <c r="G114" t="b">
-        <v>0</v>
-      </c>
       <c r="H114" t="b">
         <v>0</v>
       </c>
       <c r="I114" t="b">
+        <v>0</v>
+      </c>
+      <c r="J114" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4593,32 +5163,37 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>NCT04703348</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>NCT04802226</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Pilot Study on the Assessment of Motor Imaging Skills in Patients With Complex Regional Pain Syndrome (CRPS)</t>
-        </is>
-      </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>ImagNimes</t>
-        </is>
-      </c>
-      <c r="G115" t="b">
-        <v>0</v>
+          <t>Optimization of the Self-exclusion Procedure</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>OSE</t>
+        </is>
       </c>
       <c r="H115" t="b">
         <v>0</v>
       </c>
       <c r="I115" t="b">
+        <v>0</v>
+      </c>
+      <c r="J115" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4630,32 +5205,37 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>NCT03646786</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>NCT04703348</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Prospective Pilot Study of Multi-actor Tolerance Evaluation Using the VIRARE Device (VIrtual Reality Assisted Rehabilitation) in Visually Impaired Patients</t>
-        </is>
-      </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>VIRARE</t>
-        </is>
-      </c>
-      <c r="G116" t="b">
-        <v>0</v>
+          <t>Pilot Study on the Assessment of Motor Imaging Skills in Patients With Complex Regional Pain Syndrome (CRPS)</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>ImagNimes</t>
+        </is>
       </c>
       <c r="H116" t="b">
         <v>0</v>
       </c>
       <c r="I116" t="b">
+        <v>0</v>
+      </c>
+      <c r="J116" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4667,32 +5247,37 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
           <t>NCT03194126</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr">
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>Evaluation of Efficacy of Two Therapeutic Strategies for Cervical Maturation Before Medical Termination: Mechanical Plus Medicinal Maturation vs Medicinal Maturation Alone</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>IMEGYN</t>
         </is>
       </c>
-      <c r="G117" t="b">
-        <v>0</v>
-      </c>
       <c r="H117" t="b">
         <v>0</v>
       </c>
       <c r="I117" t="b">
+        <v>0</v>
+      </c>
+      <c r="J117" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4702,34 +5287,39 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr"/>
-      <c r="C118" t="inlineStr">
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
         <is>
           <t>2021-003511-25</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>PNEUMONIA DOSING IN CRITICALLY ILL PATIENTS A multicentre study to define novel individualised dosing regimens to maximise antibiotic effectiveness for treatment of pneumonia in ICU « French cohort of the PNEUDOS Study »</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>French PNEUDOS Study</t>
         </is>
       </c>
-      <c r="G118" t="b">
-        <v>0</v>
-      </c>
       <c r="H118" t="b">
         <v>0</v>
       </c>
       <c r="I118" t="b">
+        <v>0</v>
+      </c>
+      <c r="J118" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4739,370 +5329,420 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr"/>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>NCT05343299</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Evaluation of Postoperative Experience of Two WALANT-type Modes of Anesthesia (Lidocaine Alone or Combined With Ropivacaine) Used in Ambulatory Surgery of the Upper Limb. A Single-center Prospective Randomized, Single-blind Study</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>ROPIWA</t>
+        </is>
+      </c>
+      <c r="H119" t="b">
+        <v>0</v>
+      </c>
+      <c r="I119" t="b">
+        <v>0</v>
+      </c>
+      <c r="J119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2017-001433-74</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Screening Anti-Fungal Exposure in Intensive Care Units – The French Cohort</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>French SAFE ICU Study</t>
+        </is>
+      </c>
+      <c r="H120" t="b">
+        <v>0</v>
+      </c>
+      <c r="I120" t="b">
+        <v>0</v>
+      </c>
+      <c r="J120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2019-001837-15</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Apport de l'optimisation posologique individualisée d'amikacine guidée par un logiciel de modélisation pharmacocinétique chez les patients en choc septique  : Essai clinique randomisé, contrôlé, en ouvert</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>AMINO BESTDOSE 
+ AMINO BESTDOSE</t>
+        </is>
+      </c>
+      <c r="H121" t="b">
+        <v>0</v>
+      </c>
+      <c r="I121" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>NCT03634124</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Generation of Thrombin and Prediction of Deep Vein Thrombosis Post Prosthetic Orthopedic Surgery of the Lower Limbs</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>GT-PT</t>
+        </is>
+      </c>
+      <c r="H122" t="b">
+        <v>0</v>
+      </c>
+      <c r="I122" t="b">
+        <v>0</v>
+      </c>
+      <c r="J122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>NCT05329337</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Seeking a Link Between the Capacity of Peripheral Mononuclear Cells to Induce Insulin Resistance and the Development of Hyperinsulinemia in a General Population</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>IRACTIV</t>
+        </is>
+      </c>
+      <c r="H123" t="b">
+        <v>0</v>
+      </c>
+      <c r="I123" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>NCT01320215</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Complications Associated With Promontofixation for Pelvic Organ Prolapse: a Randomized Trial Comparing Robot Assisted Laparoscopic and Non-robot Assisted Laparoscopic Surgical Procedures</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>RoboLaps</t>
+        </is>
+      </c>
+      <c r="H124" t="b">
+        <v>0</v>
+      </c>
+      <c r="I124" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>NCT04309942</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>An Evaluation Study on the Performance of a Guided Clinical Pharmacy Consultation for Patients With Multiple Myeloma Following Their First Oral Anticancer Treatment</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>CPS MYELOME</t>
+        </is>
+      </c>
+      <c r="H125" t="b">
+        <v>0</v>
+      </c>
+      <c r="I125" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>NCT04002843</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Jitter's Recording in a Spastic Muscle Treated by Botulinum Toxin</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>JITTOX</t>
+        </is>
+      </c>
+      <c r="H126" t="b">
+        <v>0</v>
+      </c>
+      <c r="I126" t="b">
+        <v>0</v>
+      </c>
+      <c r="J126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>NCT01817166</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Multicentric, Randomized, Double-blind Versus Placebo Study Evaluating the Efficacy of Treatment With Cholecalciferol (Vitamin D3) for Delaying the Diagnosis of Multiple Sclerosis (MS) After a Clinically Isolated Syndrome (CIS). Comparison of Conversion Rates After 2 Years.</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>D-Lay-MS</t>
+        </is>
+      </c>
+      <c r="H127" t="b">
+        <v>0</v>
+      </c>
+      <c r="I127" t="b">
+        <v>0</v>
+      </c>
+      <c r="J127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>2019-001678-26</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>Erectus nerve block for lumbar spine surgery : a prospective randomized study 
  Efficacité analgésique du bloc des érecteurs du rachis pour arthrodèse rachidienne lombaire : étude comparative contre placébo</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>EFABE Study 
  EFABE</t>
         </is>
       </c>
-      <c r="G119" t="b">
-        <v>0</v>
-      </c>
-      <c r="H119" t="b">
-        <v>0</v>
-      </c>
-      <c r="I119" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>NCT03634124</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Generation of Thrombin and Prediction of Deep Vein Thrombosis Post Prosthetic Orthopedic Surgery of the Lower Limbs</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>GT-PT</t>
-        </is>
-      </c>
-      <c r="G120" t="b">
-        <v>0</v>
-      </c>
-      <c r="H120" t="b">
-        <v>0</v>
-      </c>
-      <c r="I120" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>2019-001837-15</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Apport de l'optimisation posologique individualisée d'amikacine guidée par un logiciel de modélisation pharmacocinétique chez les patients en choc septique  : Essai clinique randomisé, contrôlé, en ouvert</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>AMINO BESTDOSE 
- AMINO BESTDOSE</t>
-        </is>
-      </c>
-      <c r="G121" t="b">
-        <v>0</v>
-      </c>
-      <c r="H121" t="b">
-        <v>0</v>
-      </c>
-      <c r="I121" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr"/>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>2017-001433-74</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Screening Anti-Fungal Exposure in Intensive Care Units – The French Cohort</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>French SAFE ICU Study</t>
-        </is>
-      </c>
-      <c r="G122" t="b">
-        <v>0</v>
-      </c>
-      <c r="H122" t="b">
-        <v>0</v>
-      </c>
-      <c r="I122" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>NCT04002843</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Jitter's Recording in a Spastic Muscle Treated by Botulinum Toxin</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>JITTOX</t>
-        </is>
-      </c>
-      <c r="G123" t="b">
-        <v>0</v>
-      </c>
-      <c r="H123" t="b">
-        <v>0</v>
-      </c>
-      <c r="I123" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>NCT05565131</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Performance Measurement and Safety Evaluation of the PYTHEAS® ODYSSEE Angular Assistance System for Intra-pedicular Screw Placement in Adult Spine Surgery. First-in-human Study</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>ODYSSEE</t>
-        </is>
-      </c>
-      <c r="G124" t="b">
-        <v>0</v>
-      </c>
-      <c r="H124" t="b">
-        <v>0</v>
-      </c>
-      <c r="I124" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>NCT01320215</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Complications Associated With Promontofixation for Pelvic Organ Prolapse: a Randomized Trial Comparing Robot Assisted Laparoscopic and Non-robot Assisted Laparoscopic Surgical Procedures</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>RoboLaps</t>
-        </is>
-      </c>
-      <c r="G125" t="b">
-        <v>0</v>
-      </c>
-      <c r="H125" t="b">
-        <v>0</v>
-      </c>
-      <c r="I125" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>NCT05654818</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Peripheral Immunological Effects of High-dose Vitamin D Treatment in Healthy Subjects: Randomized, Single-center, Double-blind Trial</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>VDSS</t>
-        </is>
-      </c>
-      <c r="G126" t="b">
-        <v>0</v>
-      </c>
-      <c r="H126" t="b">
-        <v>0</v>
-      </c>
-      <c r="I126" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>NCT05329337</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Seeking a Link Between the Capacity of Peripheral Mononuclear Cells to Induce Insulin Resistance and the Development of Hyperinsulinemia in a General Population</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>IRACTIV</t>
-        </is>
-      </c>
-      <c r="G127" t="b">
-        <v>0</v>
-      </c>
-      <c r="H127" t="b">
-        <v>0</v>
-      </c>
-      <c r="I127" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>NCT04947904</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>Impact on Fluid Balance of an Optimised Restrictive Strategy Targeting Non-Resuscitative Fluids in Intensive Care Patients Hospitalised for Septic Shock: an Open-label, Multi-Centre, Randomised, Controlled Pilot Study.</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>OPTIFLUID</t>
-        </is>
-      </c>
-      <c r="G128" t="b">
-        <v>0</v>
-      </c>
       <c r="H128" t="b">
         <v>0</v>
       </c>
       <c r="I128" t="b">
+        <v>0</v>
+      </c>
+      <c r="J128" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5114,32 +5754,37 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>NCT04301401</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>NCT05654818</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>Assessment of Changes in Vaginal Microbiota Profiles Before and After Vaginal Urogynecologic Surgery</t>
-        </is>
-      </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>VAGIBIOTE</t>
-        </is>
-      </c>
-      <c r="G129" t="b">
-        <v>0</v>
+          <t>Peripheral Immunological Effects of High-dose Vitamin D Treatment in Healthy Subjects: Randomized, Single-center, Double-blind Trial</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>VDSS</t>
+        </is>
       </c>
       <c r="H129" t="b">
         <v>0</v>
       </c>
       <c r="I129" t="b">
+        <v>0</v>
+      </c>
+      <c r="J129" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5151,32 +5796,37 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>NCT04309942</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>NCT05565131</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>An Evaluation Study on the Performance of a Guided Clinical Pharmacy Consultation for Patients With Multiple Myeloma Following Their First Oral Anticancer Treatment</t>
-        </is>
-      </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>CPS MYELOME</t>
-        </is>
-      </c>
-      <c r="G130" t="b">
-        <v>0</v>
+          <t>Performance Measurement and Safety Evaluation of the PYTHEAS® ODYSSEE Angular Assistance System for Intra-pedicular Screw Placement in Adult Spine Surgery. First-in-human Study</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>ODYSSEE</t>
+        </is>
       </c>
       <c r="H130" t="b">
         <v>0</v>
       </c>
       <c r="I130" t="b">
+        <v>0</v>
+      </c>
+      <c r="J130" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5188,32 +5838,37 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>NCT01817166</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>NCT04947904</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Multicentric, Randomized, Double-blind Versus Placebo Study Evaluating the Efficacy of Treatment With Cholecalciferol (Vitamin D3) for Delaying the Diagnosis of Multiple Sclerosis (MS) After a Clinically Isolated Syndrome (CIS). Comparison of Conversion Rates After 2 Years.</t>
-        </is>
-      </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>D-Lay-MS</t>
-        </is>
-      </c>
-      <c r="G131" t="b">
-        <v>0</v>
+          <t>Impact on Fluid Balance of an Optimised Restrictive Strategy Targeting Non-Resuscitative Fluids in Intensive Care Patients Hospitalised for Septic Shock: an Open-label, Multi-Centre, Randomised, Controlled Pilot Study.</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>OPTIFLUID</t>
+        </is>
       </c>
       <c r="H131" t="b">
         <v>0</v>
       </c>
       <c r="I131" t="b">
+        <v>0</v>
+      </c>
+      <c r="J131" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5225,32 +5880,37 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>NCT05343299</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>NCT04301401</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Evaluation of Postoperative Experience of Two WALANT-type Modes of Anesthesia (Lidocaine Alone or Combined With Ropivacaine) Used in Ambulatory Surgery of the Upper Limb. A Single-center Prospective Randomized, Single-blind Study</t>
-        </is>
-      </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>ROPIWA</t>
-        </is>
-      </c>
-      <c r="G132" t="b">
-        <v>0</v>
+          <t>Assessment of Changes in Vaginal Microbiota Profiles Before and After Vaginal Urogynecologic Surgery</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>VAGIBIOTE</t>
+        </is>
       </c>
       <c r="H132" t="b">
         <v>0</v>
       </c>
       <c r="I132" t="b">
+        <v>0</v>
+      </c>
+      <c r="J132" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5262,32 +5922,37 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>NCT03964571</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>NCT02735902</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>Human and Bacterial Protease Activity As Prognostic Tool of Foot Infections in Diabetic Patients</t>
-        </is>
-      </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>CHEK BAC</t>
-        </is>
-      </c>
-      <c r="G133" t="b">
-        <v>0</v>
+          <t>Anticoagulation Alone Versus Anticoagulation and Aspirin Following Transcatheter Aortic Valve Interventions - an Open, Multicenter Randomized Controlled Trial With Two Parallel Arms (1:1)</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>AVATAR</t>
+        </is>
       </c>
       <c r="H133" t="b">
         <v>0</v>
       </c>
       <c r="I133" t="b">
+        <v>0</v>
+      </c>
+      <c r="J133" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5299,32 +5964,37 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>NCT02735902</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>NCT05060146</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Anticoagulation Alone Versus Anticoagulation and Aspirin Following Transcatheter Aortic Valve Interventions - an Open, Multicenter Randomized Controlled Trial With Two Parallel Arms (1:1)</t>
-        </is>
-      </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>AVATAR</t>
-        </is>
-      </c>
-      <c r="G134" t="b">
-        <v>0</v>
+          <t>Prevention of Pneumococcal Infections: Impact Collaborative Medico-pharmaceutical Care Structured to Improve Vaccination Coverage of Patients At Risk.</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>OPTIVACC</t>
+        </is>
       </c>
       <c r="H134" t="b">
         <v>0</v>
       </c>
       <c r="I134" t="b">
+        <v>0</v>
+      </c>
+      <c r="J134" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5336,32 +6006,39 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>NCT03929952</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
+          <t>2013-000910-40</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Descriptive Pilot Study of the Effects of a Standardized Neuromodulation Program on Cortical Brain Function in Chronic Low Back Pain Patients</t>
-        </is>
-      </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>NEMOLOC</t>
-        </is>
-      </c>
-      <c r="G135" t="b">
-        <v>0</v>
+          <t>Étude multicentrique, randomisée en double aveugle versus placebo évaluant l’efficacité d’un traitement par Cholécalciférol (Vitamine D3) pour retarder la conversion en SEP après un syndrome cliniquement isolé (SCI) 
+ Étude multicentrique, randomisée en double aveugle versus placebo évaluant l’efficacité d’un traitement par Cholécalciférol (Vitamine D3) pour retarder la conversion en SEP après un syndrome cliniquement isolé (SCI)</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>D-Lay MS 
+ D-Lay MS</t>
+        </is>
       </c>
       <c r="H135" t="b">
         <v>0</v>
       </c>
       <c r="I135" t="b">
+        <v>0</v>
+      </c>
+      <c r="J135" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5373,32 +6050,37 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>NCT05655351</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>NCT03964571</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>How Does Vaccination Against COVID-19 Affect Monocyte Production of Oxygenated Derivatives ?</t>
-        </is>
-      </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>VACTICOV2</t>
-        </is>
-      </c>
-      <c r="G136" t="b">
-        <v>0</v>
+          <t>Human and Bacterial Protease Activity As Prognostic Tool of Foot Infections in Diabetic Patients</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>CHEK BAC</t>
+        </is>
       </c>
       <c r="H136" t="b">
         <v>0</v>
       </c>
       <c r="I136" t="b">
+        <v>0</v>
+      </c>
+      <c r="J136" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5410,32 +6092,39 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>NCT05449340</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr">
         <is>
+          <t>2022-002157-25</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>Multidisciplinary Care Pathway With Electronic Patient Reported Outcomes (ePRO) Post-operative Follow-up of Breast Cancer Surgery Complications to Optimize Patient Quality of Life</t>
-        </is>
-      </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>BEAUTIFY-3</t>
-        </is>
-      </c>
-      <c r="G137" t="b">
-        <v>0</v>
+          <t>Description des effets immunologiques périphériques d’un traitement vitamine D à forte dose chez les sujets sains. Essai randomisé monocentrique en double aveugle  
+ Description des effets immunologiques périphériques d’un traitement vitamine D à forte dose chez les sujets sains. Essai randomisé monocentrique en double aveugle</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>VDSS 
+ VDSS</t>
+        </is>
       </c>
       <c r="H137" t="b">
         <v>0</v>
       </c>
       <c r="I137" t="b">
+        <v>0</v>
+      </c>
+      <c r="J137" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5447,32 +6136,37 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
           <t>NCT05058313</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr">
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>Evaluation of the Safety and Performance of the MILTA GYNECO Vaginal Probe in Postmenopausal Women With Vaginal Atrophy Resistant to All Non-invasive Therapies for More Than 3 Months - Pilot Study of First Use in Females</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>SIVAM</t>
         </is>
       </c>
-      <c r="G138" t="b">
-        <v>0</v>
-      </c>
       <c r="H138" t="b">
         <v>0</v>
       </c>
       <c r="I138" t="b">
+        <v>0</v>
+      </c>
+      <c r="J138" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5482,36 +6176,39 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr"/>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>2022-002157-25</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
+          <t>NCT03929952</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Description des effets immunologiques périphériques d’un traitement vitamine D à forte dose chez les sujets sains. Essai randomisé monocentrique en double aveugle  
- Description des effets immunologiques périphériques d’un traitement vitamine D à forte dose chez les sujets sains. Essai randomisé monocentrique en double aveugle</t>
-        </is>
-      </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>VDSS 
- VDSS</t>
-        </is>
-      </c>
-      <c r="G139" t="b">
-        <v>0</v>
+          <t>Descriptive Pilot Study of the Effects of a Standardized Neuromodulation Program on Cortical Brain Function in Chronic Low Back Pain Patients</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>NEMOLOC</t>
+        </is>
       </c>
       <c r="H139" t="b">
         <v>0</v>
       </c>
       <c r="I139" t="b">
+        <v>0</v>
+      </c>
+      <c r="J139" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5521,36 +6218,39 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr"/>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2013-000910-40</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
+          <t>NCT05449340</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>Étude multicentrique, randomisée en double aveugle versus placebo évaluant l’efficacité d’un traitement par Cholécalciférol (Vitamine D3) pour retarder la conversion en SEP après un syndrome cliniquement isolé (SCI) 
- Étude multicentrique, randomisée en double aveugle versus placebo évaluant l’efficacité d’un traitement par Cholécalciférol (Vitamine D3) pour retarder la conversion en SEP après un syndrome cliniquement isolé (SCI)</t>
-        </is>
-      </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>D-Lay MS 
- D-Lay MS</t>
-        </is>
-      </c>
-      <c r="G140" t="b">
-        <v>0</v>
+          <t>Multidisciplinary Care Pathway With Electronic Patient Reported Outcomes (ePRO) Post-operative Follow-up of Breast Cancer Surgery Complications to Optimize Patient Quality of Life</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>BEAUTIFY-3</t>
+        </is>
       </c>
       <c r="H140" t="b">
         <v>0</v>
       </c>
       <c r="I140" t="b">
+        <v>0</v>
+      </c>
+      <c r="J140" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5562,32 +6262,37 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>NCT05060146</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>NCT05655351</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>Prevention of Pneumococcal Infections: Impact Collaborative Medico-pharmaceutical Care Structured to Improve Vaccination Coverage of Patients At Risk.</t>
-        </is>
-      </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>OPTIVACC</t>
-        </is>
-      </c>
-      <c r="G141" t="b">
-        <v>0</v>
+          <t>How Does Vaccination Against COVID-19 Affect Monocyte Production of Oxygenated Derivatives ?</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>VACTICOV2</t>
+        </is>
       </c>
       <c r="H141" t="b">
         <v>0</v>
       </c>
       <c r="I141" t="b">
+        <v>0</v>
+      </c>
+      <c r="J141" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5597,31 +6302,36 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr"/>
-      <c r="C142" t="inlineStr">
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr">
         <is>
           <t>2021-006493-23</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr"/>
-      <c r="E142" t="inlineStr">
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr">
         <is>
           <t>Evaluation of the patient postoperative experience of two modes of WALANT-type anesthesia (lidocaine alone or combined with ropivacaine) used in ambulatory upper-extremity surgery 
  Evaluation de l’effet sur le vécu post opératoire de deux modes d’anesthésie de type WALANT (lidocaïne seule ou associée à la ropivacaïne) utilisés en chirurgie ambulatoire du membre supérieur</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>ROPIWA</t>
         </is>
       </c>
-      <c r="G142" t="b">
-        <v>0</v>
-      </c>
       <c r="H142" t="b">
         <v>0</v>
       </c>
       <c r="I142" t="b">
+        <v>0</v>
+      </c>
+      <c r="J142" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5631,26 +6341,31 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr"/>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>2008-007161-23</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>Etude comparative de l’efficacité articulaire et fonctionnelle du Mélange Equimoléculaire Oxygène-Protoxyde d’Azote (MEOPA) dans la rééducation des capsulites rétractiles d'épaule.</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="b">
-        <v>0</v>
-      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2008-007163-16</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>La TEP-TDM au 18F-FDG : permet-elle d’optimiser les résultats de la scintigraphie à la I123-MIBG dans la recherche d’éléments discriminants pour l’implantation d’un défibrillateur implantable, en prévention primaire, chez les patients porteurs d’une insuffisance cardiaque d’origine ischémique ?</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr"/>
       <c r="H143" t="b">
         <v>0</v>
       </c>
       <c r="I143" t="b">
+        <v>0</v>
+      </c>
+      <c r="J143" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5660,26 +6375,31 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr"/>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>2008-007163-16</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>La TEP-TDM au 18F-FDG : permet-elle d’optimiser les résultats de la scintigraphie à la I123-MIBG dans la recherche d’éléments discriminants pour l’implantation d’un défibrillateur implantable, en prévention primaire, chez les patients porteurs d’une insuffisance cardiaque d’origine ischémique ?</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="b">
-        <v>0</v>
-      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2008-007161-23</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Etude comparative de l’efficacité articulaire et fonctionnelle du Mélange Equimoléculaire Oxygène-Protoxyde d’Azote (MEOPA) dans la rééducation des capsulites rétractiles d'épaule.</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr"/>
       <c r="H144" t="b">
         <v>0</v>
       </c>
       <c r="I144" t="b">
+        <v>0</v>
+      </c>
+      <c r="J144" t="b">
         <v>0</v>
       </c>
     </row>

--- a/publipostage/0275ye937/liste_essais_cliniques_identifies_0275ye937.xlsx
+++ b/publipostage/0275ye937/liste_essais_cliniques_identifies_0275ye937.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J144"/>
+  <dimension ref="A1:K144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -522,6 +527,11 @@
       <c r="J2" t="b">
         <v>0</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -560,6 +570,11 @@
       <c r="J3" t="b">
         <v>1</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -598,6 +613,11 @@
       <c r="J4" t="b">
         <v>1</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -636,6 +656,11 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -674,6 +699,11 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -716,6 +746,11 @@
       <c r="J7" t="b">
         <v>0</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -754,6 +789,11 @@
       <c r="J8" t="b">
         <v>0</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -796,6 +836,11 @@
       <c r="J9" t="b">
         <v>0</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -838,6 +883,11 @@
       <c r="J10" t="b">
         <v>0</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -880,6 +930,11 @@
       <c r="J11" t="b">
         <v>0</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -922,6 +977,11 @@
       <c r="J12" t="b">
         <v>1</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -964,6 +1024,11 @@
       <c r="J13" t="b">
         <v>0</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1006,6 +1071,11 @@
       <c r="J14" t="b">
         <v>1</v>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1044,6 +1114,11 @@
       <c r="J15" t="b">
         <v>1</v>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1086,6 +1161,11 @@
       <c r="J16" t="b">
         <v>0</v>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1128,6 +1208,11 @@
       <c r="J17" t="b">
         <v>0</v>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1166,6 +1251,11 @@
       <c r="J18" t="b">
         <v>0</v>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1204,6 +1294,11 @@
       <c r="J19" t="b">
         <v>0</v>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1246,6 +1341,11 @@
       <c r="J20" t="b">
         <v>0</v>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1284,6 +1384,11 @@
       <c r="J21" t="b">
         <v>1</v>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1322,6 +1427,11 @@
       <c r="J22" t="b">
         <v>0</v>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1360,6 +1470,11 @@
       <c r="J23" t="b">
         <v>0</v>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1402,6 +1517,11 @@
       <c r="J24" t="b">
         <v>0</v>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1444,6 +1564,11 @@
       <c r="J25" t="b">
         <v>0</v>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1486,6 +1611,11 @@
       <c r="J26" t="b">
         <v>0</v>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1528,6 +1658,11 @@
       <c r="J27" t="b">
         <v>0</v>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1570,6 +1705,11 @@
       <c r="J28" t="b">
         <v>0</v>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1612,6 +1752,11 @@
       <c r="J29" t="b">
         <v>0</v>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1654,6 +1799,11 @@
       <c r="J30" t="b">
         <v>0</v>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1692,6 +1842,11 @@
       <c r="J31" t="b">
         <v>0</v>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1730,6 +1885,11 @@
       <c r="J32" t="b">
         <v>0</v>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1772,6 +1932,11 @@
       <c r="J33" t="b">
         <v>0</v>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1814,6 +1979,11 @@
       <c r="J34" t="b">
         <v>0</v>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1852,6 +2022,11 @@
       <c r="J35" t="b">
         <v>1</v>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1894,6 +2069,11 @@
       <c r="J36" t="b">
         <v>1</v>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1936,6 +2116,11 @@
       <c r="J37" t="b">
         <v>0</v>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1978,6 +2163,11 @@
       <c r="J38" t="b">
         <v>0</v>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2020,6 +2210,11 @@
       <c r="J39" t="b">
         <v>0</v>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2062,6 +2257,11 @@
       <c r="J40" t="b">
         <v>0</v>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2104,6 +2304,11 @@
       <c r="J41" t="b">
         <v>0</v>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2146,6 +2351,11 @@
       <c r="J42" t="b">
         <v>0</v>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2188,6 +2398,11 @@
       <c r="J43" t="b">
         <v>1</v>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2230,6 +2445,11 @@
       <c r="J44" t="b">
         <v>0</v>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2272,6 +2492,11 @@
       <c r="J45" t="b">
         <v>1</v>
       </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2314,6 +2539,11 @@
       <c r="J46" t="b">
         <v>0</v>
       </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2352,6 +2582,11 @@
       <c r="J47" t="b">
         <v>1</v>
       </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2394,6 +2629,11 @@
       <c r="J48" t="b">
         <v>1</v>
       </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2436,6 +2676,11 @@
       <c r="J49" t="b">
         <v>0</v>
       </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2478,6 +2723,11 @@
       <c r="J50" t="b">
         <v>0</v>
       </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2520,6 +2770,11 @@
       <c r="J51" t="b">
         <v>0</v>
       </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2562,6 +2817,11 @@
       <c r="J52" t="b">
         <v>0</v>
       </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2606,6 +2866,7 @@
       <c r="J53" t="b">
         <v>0</v>
       </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2648,6 +2909,11 @@
       <c r="J54" t="b">
         <v>1</v>
       </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2690,6 +2956,11 @@
       <c r="J55" t="b">
         <v>0</v>
       </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2732,6 +3003,11 @@
       <c r="J56" t="b">
         <v>0</v>
       </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2774,6 +3050,11 @@
       <c r="J57" t="b">
         <v>0</v>
       </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2812,6 +3093,11 @@
       <c r="J58" t="b">
         <v>0</v>
       </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2854,6 +3140,11 @@
       <c r="J59" t="b">
         <v>0</v>
       </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2896,6 +3187,11 @@
       <c r="J60" t="b">
         <v>0</v>
       </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2938,6 +3234,11 @@
       <c r="J61" t="b">
         <v>0</v>
       </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2980,6 +3281,11 @@
       <c r="J62" t="b">
         <v>0</v>
       </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3022,6 +3328,11 @@
       <c r="J63" t="b">
         <v>0</v>
       </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3064,6 +3375,11 @@
       <c r="J64" t="b">
         <v>0</v>
       </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3106,6 +3422,11 @@
       <c r="J65" t="b">
         <v>0</v>
       </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3148,6 +3469,11 @@
       <c r="J66" t="b">
         <v>1</v>
       </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3190,6 +3516,11 @@
       <c r="J67" t="b">
         <v>0</v>
       </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3232,6 +3563,11 @@
       <c r="J68" t="b">
         <v>0</v>
       </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3274,6 +3610,11 @@
       <c r="J69" t="b">
         <v>0</v>
       </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3316,6 +3657,11 @@
       <c r="J70" t="b">
         <v>0</v>
       </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3358,6 +3704,11 @@
       <c r="J71" t="b">
         <v>0</v>
       </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3400,6 +3751,11 @@
       <c r="J72" t="b">
         <v>0</v>
       </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3442,6 +3798,11 @@
       <c r="J73" t="b">
         <v>1</v>
       </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3480,6 +3841,11 @@
       <c r="J74" t="b">
         <v>0</v>
       </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3522,6 +3888,11 @@
       <c r="J75" t="b">
         <v>0</v>
       </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3564,6 +3935,11 @@
       <c r="J76" t="b">
         <v>0</v>
       </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3602,6 +3978,11 @@
       <c r="J77" t="b">
         <v>1</v>
       </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3644,6 +4025,11 @@
       <c r="J78" t="b">
         <v>0</v>
       </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3686,6 +4072,11 @@
       <c r="J79" t="b">
         <v>1</v>
       </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3728,6 +4119,11 @@
       <c r="J80" t="b">
         <v>0</v>
       </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3770,6 +4166,11 @@
       <c r="J81" t="b">
         <v>0</v>
       </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3812,6 +4213,11 @@
       <c r="J82" t="b">
         <v>0</v>
       </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3854,6 +4260,11 @@
       <c r="J83" t="b">
         <v>0</v>
       </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3898,6 +4309,7 @@
       <c r="J84" t="b">
         <v>0</v>
       </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3940,6 +4352,11 @@
       <c r="J85" t="b">
         <v>0</v>
       </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3982,6 +4399,11 @@
       <c r="J86" t="b">
         <v>0</v>
       </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4024,6 +4446,11 @@
       <c r="J87" t="b">
         <v>0</v>
       </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4066,6 +4493,11 @@
       <c r="J88" t="b">
         <v>0</v>
       </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4108,6 +4540,11 @@
       <c r="J89" t="b">
         <v>0</v>
       </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4150,6 +4587,11 @@
       <c r="J90" t="b">
         <v>0</v>
       </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4192,6 +4634,11 @@
       <c r="J91" t="b">
         <v>0</v>
       </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4234,6 +4681,11 @@
       <c r="J92" t="b">
         <v>0</v>
       </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4276,6 +4728,11 @@
       <c r="J93" t="b">
         <v>0</v>
       </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4318,6 +4775,11 @@
       <c r="J94" t="b">
         <v>0</v>
       </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4359,6 +4821,11 @@
       </c>
       <c r="J95" t="b">
         <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
       </c>
     </row>
     <row r="96">
@@ -4398,6 +4865,11 @@
       <c r="J96" t="b">
         <v>1</v>
       </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4440,6 +4912,11 @@
       <c r="J97" t="b">
         <v>0</v>
       </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4482,6 +4959,11 @@
       <c r="J98" t="b">
         <v>0</v>
       </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4524,6 +5006,11 @@
       <c r="J99" t="b">
         <v>0</v>
       </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4566,6 +5053,11 @@
       <c r="J100" t="b">
         <v>0</v>
       </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4608,6 +5100,11 @@
       <c r="J101" t="b">
         <v>0</v>
       </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4650,6 +5147,11 @@
       <c r="J102" t="b">
         <v>1</v>
       </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4692,6 +5194,11 @@
       <c r="J103" t="b">
         <v>0</v>
       </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4734,6 +5241,11 @@
       <c r="J104" t="b">
         <v>0</v>
       </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4776,6 +5288,11 @@
       <c r="J105" t="b">
         <v>0</v>
       </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4818,6 +5335,11 @@
       <c r="J106" t="b">
         <v>0</v>
       </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4860,6 +5382,11 @@
       <c r="J107" t="b">
         <v>0</v>
       </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4902,6 +5429,11 @@
       <c r="J108" t="b">
         <v>0</v>
       </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4944,6 +5476,11 @@
       <c r="J109" t="b">
         <v>0</v>
       </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4986,6 +5523,11 @@
       <c r="J110" t="b">
         <v>0</v>
       </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5028,6 +5570,11 @@
       <c r="J111" t="b">
         <v>0</v>
       </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5070,6 +5617,11 @@
       <c r="J112" t="b">
         <v>0</v>
       </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5112,6 +5664,11 @@
       <c r="J113" t="b">
         <v>0</v>
       </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5154,6 +5711,11 @@
       <c r="J114" t="b">
         <v>0</v>
       </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5196,6 +5758,11 @@
       <c r="J115" t="b">
         <v>0</v>
       </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5238,6 +5805,11 @@
       <c r="J116" t="b">
         <v>0</v>
       </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5280,6 +5852,11 @@
       <c r="J117" t="b">
         <v>0</v>
       </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5322,6 +5899,7 @@
       <c r="J118" t="b">
         <v>0</v>
       </c>
+      <c r="K118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5364,6 +5942,11 @@
       <c r="J119" t="b">
         <v>0</v>
       </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>COMBINATION_PRODUCT</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5406,6 +5989,7 @@
       <c r="J120" t="b">
         <v>0</v>
       </c>
+      <c r="K120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5449,6 +6033,7 @@
       <c r="J121" t="b">
         <v>0</v>
       </c>
+      <c r="K121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5491,6 +6076,11 @@
       <c r="J122" t="b">
         <v>0</v>
       </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5533,6 +6123,11 @@
       <c r="J123" t="b">
         <v>0</v>
       </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5575,6 +6170,11 @@
       <c r="J124" t="b">
         <v>0</v>
       </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5617,6 +6217,11 @@
       <c r="J125" t="b">
         <v>0</v>
       </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5659,6 +6264,11 @@
       <c r="J126" t="b">
         <v>0</v>
       </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5701,6 +6311,11 @@
       <c r="J127" t="b">
         <v>0</v>
       </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5745,6 +6360,7 @@
       <c r="J128" t="b">
         <v>0</v>
       </c>
+      <c r="K128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5787,6 +6403,11 @@
       <c r="J129" t="b">
         <v>0</v>
       </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5829,6 +6450,11 @@
       <c r="J130" t="b">
         <v>0</v>
       </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5871,6 +6497,11 @@
       <c r="J131" t="b">
         <v>0</v>
       </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5913,6 +6544,11 @@
       <c r="J132" t="b">
         <v>0</v>
       </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -5955,6 +6591,11 @@
       <c r="J133" t="b">
         <v>0</v>
       </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -5997,6 +6638,11 @@
       <c r="J134" t="b">
         <v>0</v>
       </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -6041,6 +6687,7 @@
       <c r="J135" t="b">
         <v>0</v>
       </c>
+      <c r="K135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -6083,6 +6730,11 @@
       <c r="J136" t="b">
         <v>0</v>
       </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -6127,6 +6779,7 @@
       <c r="J137" t="b">
         <v>0</v>
       </c>
+      <c r="K137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -6169,6 +6822,11 @@
       <c r="J138" t="b">
         <v>0</v>
       </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -6211,6 +6869,11 @@
       <c r="J139" t="b">
         <v>0</v>
       </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -6253,6 +6916,11 @@
       <c r="J140" t="b">
         <v>0</v>
       </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -6295,6 +6963,11 @@
       <c r="J141" t="b">
         <v>0</v>
       </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6334,6 +7007,7 @@
       <c r="J142" t="b">
         <v>0</v>
       </c>
+      <c r="K142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -6368,6 +7042,7 @@
       <c r="J143" t="b">
         <v>0</v>
       </c>
+      <c r="K143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -6402,6 +7077,7 @@
       <c r="J144" t="b">
         <v>0</v>
       </c>
+      <c r="K144" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
